--- a/data/SampleV.01/Elementplan_FR_SampleV.01.xlsx
+++ b/data/SampleV.01/Elementplan_FR_SampleV.01.xlsx
@@ -39,10 +39,10 @@
     <t>Pset</t>
   </si>
   <si>
-    <t>AttributDescriptionFR</t>
-  </si>
-  <si>
-    <t>AttributName</t>
+    <t>AttributeDescriptionFR</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
   </si>
   <si>
     <t>Unit</t>
@@ -114,12 +114,12 @@
     <t>IfcSpace</t>
   </si>
   <si>
+    <t>IfcWindow</t>
+  </si>
+  <si>
     <t>IfcDoor</t>
   </si>
   <si>
-    <t>IfcWindow</t>
-  </si>
-  <si>
     <t>Pset_SpaceCommon</t>
   </si>
   <si>
@@ -129,22 +129,22 @@
     <t>LongName</t>
   </si>
   <si>
+    <t>PredefinedType</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace</t>
+  </si>
+  <si>
     <t>IsExternal</t>
   </si>
   <si>
-    <t>PredefinedType</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace</t>
+    <t>EXTERNAL, INTERNAL</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-  </si>
-  <si>
-    <t>EXTERNAL, INTERNAL</t>
   </si>
   <si>
     <t>DOOR, GATE, TRAPDOOR, USERDEFINED, NOTDEFINED</t>
@@ -929,7 +929,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>39</v>
@@ -969,8 +969,11 @@
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>40</v>
@@ -1011,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>43</v>
@@ -1051,14 +1054,11 @@
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>43</v>
@@ -1096,10 +1096,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>43</v>
@@ -1146,10 +1143,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>43</v>
@@ -1196,10 +1193,13 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>43</v>
@@ -1249,7 +1249,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>43</v>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>45</v>
